--- a/mySystem/mySystem/xls/PTV/SOP-MFG-110-R01A 清场记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/SOP-MFG-110-R01A 清场记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <r>
       <rPr>
@@ -264,6 +264,16 @@
   </si>
   <si>
     <t>产品批号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期：2015年    月    日
+生产班次： 白班□   夜班□</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格  □ 
+不合格□</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,6 +798,39 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -800,95 +843,62 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1230,34 +1240,34 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -1266,11 +1276,11 @@
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1287,194 +1297,185 @@
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="29"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="30"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="30"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="30"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="30"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="30"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="30"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="30"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="30"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="49"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="30"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="49"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="30"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="49"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="30"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="30"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="30"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="30"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="31"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A19:F20"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
@@ -1489,6 +1490,15 @@
     <mergeCell ref="H5:H20"/>
     <mergeCell ref="I5:I20"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A19:F20"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1501,7 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
@@ -1535,34 +1545,34 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="42" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -1571,11 +1581,11 @@
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1596,19 +1606,19 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39" t="s">
+      <c r="G5" s="38"/>
+      <c r="H5" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
@@ -1617,17 +1627,17 @@
       <c r="B6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="30"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
@@ -1636,17 +1646,17 @@
       <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="30"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
@@ -1655,51 +1665,51 @@
       <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="30"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23">
+      <c r="A9" s="47">
         <v>3</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="30"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="20" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="30"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
@@ -1708,17 +1718,17 @@
       <c r="B11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="30"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
@@ -1727,138 +1737,149 @@
       <c r="B12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="30"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23">
+      <c r="A13" s="47">
         <v>6</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="30"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="20" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="30"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="30"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="20" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="30"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="20" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="30"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="25"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="20" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="30"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="30"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="31"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="I5:I20"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B13:B18"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C12:E12"/>
@@ -1875,17 +1896,6 @@
     <mergeCell ref="H5:H20"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A19:F20"/>
-    <mergeCell ref="I5:I20"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/PTV/SOP-MFG-110-R01A 清场记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/SOP-MFG-110-R01A 清场记录.xlsx
@@ -801,6 +801,69 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -818,69 +881,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1206,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1240,34 +1240,34 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -1276,11 +1276,11 @@
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1297,182 +1297,182 @@
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="41"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="42"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="42"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="42"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="42"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="42"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="42"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="42"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="42"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="42"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="42"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="42"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="42"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="42"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="42"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="43"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -1492,13 +1492,13 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="A19:F20"/>
     <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1545,34 +1545,34 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -1581,11 +1581,11 @@
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1606,19 +1606,19 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="41"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
@@ -1627,17 +1627,17 @@
       <c r="B6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="42"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
@@ -1646,17 +1646,17 @@
       <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="42"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
@@ -1665,17 +1665,17 @@
       <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="42"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="47">
@@ -1684,32 +1684,32 @@
       <c r="B9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="42"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="48"/>
       <c r="B10" s="45"/>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="42"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
@@ -1718,17 +1718,17 @@
       <c r="B11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="42"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
@@ -1737,17 +1737,17 @@
       <c r="B12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="42"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47">
@@ -1756,116 +1756,116 @@
       <c r="B13" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="42"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="49"/>
       <c r="B14" s="46"/>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="42"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="42"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="49"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="42"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="49"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="42"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="48"/>
       <c r="B18" s="45"/>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="42"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="42"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="43"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="27">
